--- a/data.xlsx
+++ b/data.xlsx
@@ -54,6 +54,48 @@
   </si>
   <si>
     <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:47:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbghb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdsdgg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:22:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdksdfbjm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:24:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbnbv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
   </si>
 </sst>
 </file>
@@ -412,6 +454,74 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>52412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -518,8 +518,8 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
+      <c r="E6">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
